--- a/production_recipe_management_tool_v1.1/data/Unit_Cost/Our_Production_Products_Unit_Cost.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Unit_Cost/Our_Production_Products_Unit_Cost.xlsx
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>26.91206900452489</v>
+        <v>23.41206900452489</v>
       </c>
     </row>
     <row r="27">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.741175418288962</v>
+        <v>2.50396611596338</v>
       </c>
     </row>
     <row r="31">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.1429310344827586</v>
+        <v>0.1636206896551724</v>
       </c>
     </row>
     <row r="36">

--- a/production_recipe_management_tool_v1.1/data/Unit_Cost/Our_Production_Products_Unit_Cost.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Unit_Cost/Our_Production_Products_Unit_Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>Product</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Dabeli Alu Pur Sabji</t>
+  </si>
+  <si>
+    <t>Chicken Semi Premium Momo 25 Gm</t>
   </si>
   <si>
     <t>Sweet and Spicy Mayo</t>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>0.1065974389140271</v>
@@ -587,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>0.1911463865546218</v>
@@ -598,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>0.294258076923077</v>
@@ -609,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>0.3142580769230769</v>
@@ -620,7 +623,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>0.0663273076923077</v>
@@ -631,7 +634,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>0.06155807692307693</v>
@@ -642,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>0.05829337104072399</v>
@@ -653,7 +656,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>0.1475144524886878</v>
@@ -664,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>0.2055110859728506</v>
@@ -675,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>0.189802556561086</v>
@@ -686,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>0.1338235294117647</v>
@@ -697,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>0.1911382389140271</v>
@@ -708,7 +711,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>0.2752</v>
@@ -719,7 +722,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>0.8516608695652174</v>
@@ -730,7 +733,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>0.316003953194181</v>
@@ -741,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>9.304472096530921</v>
@@ -752,7 +755,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>3.164245798319328</v>
@@ -763,10 +766,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19">
-        <v>5.021231705414261</v>
+        <v>4.607438601965986</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -774,7 +777,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>1.0868</v>
@@ -785,7 +788,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>3.445602076124568</v>
@@ -796,7 +799,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>0.475</v>
@@ -807,7 +810,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>0.1333994117647059</v>
@@ -818,7 +821,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>2.21497205882353</v>
@@ -829,7 +832,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>0.1286319230769231</v>
@@ -840,7 +843,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>0.7776000000000001</v>
@@ -851,7 +854,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>22.83706900452488</v>
@@ -862,7 +865,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>59.41206900452489</v>
@@ -873,7 +876,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>16.08229411764706</v>
@@ -884,7 +887,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <v>36.38730882352942</v>
@@ -895,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>2.50396611596338</v>
@@ -906,7 +909,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32">
         <v>0.172248951048951</v>
@@ -917,7 +920,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33">
         <v>0.1490016722408027</v>
@@ -928,7 +931,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34">
         <v>2.343009411764706</v>
@@ -939,7 +942,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35">
         <v>0.124597816399287</v>
@@ -950,10 +953,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36">
-        <v>0.1636206896551724</v>
+        <v>2.303719300982993</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -961,10 +964,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37">
-        <v>0.1778361538461539</v>
+        <v>0.1636206896551724</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -975,7 +978,7 @@
         <v>60</v>
       </c>
       <c r="C38">
-        <v>2.172088235294118</v>
+        <v>0.1778361538461539</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -983,10 +986,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C39">
-        <v>0.9413529411764706</v>
+        <v>2.172088235294118</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -994,10 +997,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40">
-        <v>0.1949216666666667</v>
+        <v>0.9413529411764706</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1008,7 +1011,7 @@
         <v>60</v>
       </c>
       <c r="C41">
-        <v>3.809191176470589</v>
+        <v>0.1949216666666667</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1016,10 +1019,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C42">
-        <v>0.1016207642031172</v>
+        <v>3.809191176470589</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1027,10 +1030,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43">
-        <v>0.1476476846057572</v>
+        <v>0.1016207642031172</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1038,10 +1041,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44">
-        <v>0.0950959185520362</v>
+        <v>0.1476476846057572</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1049,10 +1052,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
-        <v>0.1652723076923077</v>
+        <v>0.0950959185520362</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1060,10 +1063,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46">
-        <v>0.1852723076923077</v>
+        <v>0.1652723076923077</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1071,10 +1074,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47">
-        <v>0.1152723076923077</v>
+        <v>0.1852723076923077</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1082,10 +1085,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48">
-        <v>0.1994021176470588</v>
+        <v>0.1152723076923077</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1096,7 +1099,7 @@
         <v>60</v>
       </c>
       <c r="C49">
-        <v>13.342</v>
+        <v>0.1994021176470588</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1104,10 +1107,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50">
-        <v>10.942</v>
+        <v>13.342</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1115,10 +1118,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51">
-        <v>0.1465235671191554</v>
+        <v>10.942</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1126,10 +1129,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52">
-        <v>0.112207264957265</v>
+        <v>0.1465235671191554</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1137,10 +1140,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53">
-        <v>0.1170247916170517</v>
+        <v>0.112207264957265</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1148,10 +1151,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54">
-        <v>0.09775683760683759</v>
+        <v>0.1170247916170517</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1159,10 +1162,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>0.1884145034532032</v>
+        <v>0.09775683760683759</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1173,7 +1176,7 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>5.688627450980392</v>
+        <v>0.1884145034532032</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1181,9 +1184,20 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57">
+        <v>5.688627450980392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
         <v>7.021960784313726</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Unit_Cost/Our_Production_Products_Unit_Cost.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Unit_Cost/Our_Production_Products_Unit_Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
   <si>
     <t>Product</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Malai Kebab Masala</t>
   </si>
   <si>
+    <t>Roasted Garlic</t>
+  </si>
+  <si>
     <t>Chicken Basic Momo 30 Gm</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
     <t>Chicken Momo Soup</t>
   </si>
   <si>
+    <t>Veg Momo Soup</t>
+  </si>
+  <si>
     <t>Fried Chicken Sprinkle Masala 3</t>
   </si>
   <si>
@@ -154,6 +160,9 @@
     <t>Special Burger Sauce</t>
   </si>
   <si>
+    <t>Roti Flat Bread</t>
+  </si>
+  <si>
     <t>Momo Sauce Premium 500 Gm</t>
   </si>
   <si>
@@ -164,9 +173,6 @@
   </si>
   <si>
     <t>Pickle Relish (Originally For 500 Gm Onion)</t>
-  </si>
-  <si>
-    <t>Roasted Garlic</t>
   </si>
   <si>
     <t>Chicken Burger Patty 55 Gm</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>0.1065974389140271</v>
@@ -590,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>0.1911463865546218</v>
@@ -601,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>0.294258076923077</v>
@@ -612,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>0.3142580769230769</v>
@@ -623,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>0.0663273076923077</v>
@@ -634,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>0.06155807692307693</v>
@@ -645,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>0.05829337104072399</v>
@@ -656,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>0.1475144524886878</v>
@@ -667,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>0.2055110859728506</v>
@@ -678,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>0.189802556561086</v>
@@ -689,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>0.1338235294117647</v>
@@ -700,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13">
         <v>0.1911382389140271</v>
@@ -711,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>0.2752</v>
@@ -722,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>0.8516608695652174</v>
@@ -733,7 +739,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>0.316003953194181</v>
@@ -744,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>9.304472096530921</v>
@@ -755,7 +761,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>3.164245798319328</v>
@@ -766,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>4.607438601965986</v>
@@ -777,7 +783,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>1.0868</v>
@@ -788,10 +794,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <v>3.445602076124568</v>
+        <v>0.6739054901960786</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -799,10 +805,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>0.475</v>
+        <v>3.445602076124568</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -810,10 +816,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23">
-        <v>0.1333994117647059</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -821,10 +827,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24">
-        <v>2.21497205882353</v>
+        <v>0.1333994117647059</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -832,10 +838,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C25">
-        <v>0.1286319230769231</v>
+        <v>2.21497205882353</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -843,10 +849,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26">
-        <v>0.7776000000000001</v>
+        <v>0.1286319230769231</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -854,10 +860,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27">
-        <v>22.83706900452488</v>
+        <v>0.7776000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -865,10 +871,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28">
-        <v>59.41206900452489</v>
+        <v>22.83706900452488</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -876,10 +882,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29">
-        <v>16.08229411764706</v>
+        <v>59.41206900452489</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -887,10 +893,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30">
-        <v>36.38730882352942</v>
+        <v>16.08229411764706</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -898,10 +904,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31">
-        <v>2.50396611596338</v>
+        <v>36.38730882352942</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -909,10 +915,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>0.172248951048951</v>
+        <v>2.50396611596338</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -920,10 +926,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C33">
-        <v>0.1490016722408027</v>
+        <v>0.172248951048951</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -931,10 +937,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34">
-        <v>2.343009411764706</v>
+        <v>0.1490016722408027</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -942,10 +948,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C35">
-        <v>0.124597816399287</v>
+        <v>2.343009411764706</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -953,10 +959,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36">
-        <v>2.303719300982993</v>
+        <v>0.124597816399287</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -964,10 +970,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C37">
-        <v>0.1636206896551724</v>
+        <v>2.303719300982993</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -975,10 +981,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C38">
-        <v>0.1778361538461539</v>
+        <v>0.2548275862068966</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -986,10 +992,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39">
-        <v>2.172088235294118</v>
+        <v>0.1778361538461539</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -997,10 +1003,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C40">
-        <v>0.9413529411764706</v>
+        <v>2.172088235294118</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1008,10 +1014,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C41">
-        <v>0.1949216666666667</v>
+        <v>1.105421568627451</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1019,10 +1025,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42">
-        <v>3.809191176470589</v>
+        <v>0.9413529411764706</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1030,10 +1036,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C43">
-        <v>0.1016207642031172</v>
+        <v>0.1949216666666667</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1041,10 +1047,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C44">
-        <v>0.1476476846057572</v>
+        <v>3.809191176470589</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1052,10 +1058,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C45">
-        <v>0.0950959185520362</v>
+        <v>0.1016207642031172</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1063,10 +1069,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C46">
-        <v>0.1652723076923077</v>
+        <v>0.1476476846057572</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1074,10 +1080,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C47">
-        <v>0.1852723076923077</v>
+        <v>1.564230769230769</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1085,10 +1091,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48">
-        <v>0.1152723076923077</v>
+        <v>0.0950959185520362</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1096,10 +1102,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49">
-        <v>0.1994021176470588</v>
+        <v>0.1652723076923077</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1107,10 +1113,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50">
-        <v>13.342</v>
+        <v>0.1852723076923077</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1118,10 +1124,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51">
-        <v>10.942</v>
+        <v>0.1152723076923077</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1129,10 +1135,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C52">
-        <v>0.1465235671191554</v>
+        <v>13.342</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1140,10 +1146,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C53">
-        <v>0.112207264957265</v>
+        <v>10.942</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1151,10 +1157,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C54">
-        <v>0.1170247916170517</v>
+        <v>0.1465235671191554</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1162,10 +1168,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C55">
-        <v>0.09775683760683759</v>
+        <v>0.112207264957265</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1173,10 +1179,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C56">
-        <v>0.1884145034532032</v>
+        <v>0.1170247916170517</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1184,10 +1190,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>5.688627450980392</v>
+        <v>0.09775683760683759</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1195,9 +1201,31 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>0.1884145034532032</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>5.688627450980392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="C58">
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60">
         <v>7.021960784313726</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Unit_Cost/Our_Production_Products_Unit_Cost.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Unit_Cost/Our_Production_Products_Unit_Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
   <si>
     <t>Product</t>
   </si>
@@ -64,6 +64,12 @@
     <t>Tisi Masala</t>
   </si>
   <si>
+    <t>Fried Chicken Popcorn</t>
+  </si>
+  <si>
+    <t>Fried Chicken Legs</t>
+  </si>
+  <si>
     <t>Fried Chicken Sprinkle Masala 1</t>
   </si>
   <si>
@@ -79,6 +85,33 @@
     <t>Chicken Semi Premium Momo 40 Gm</t>
   </si>
   <si>
+    <t>Fried Chicken Wings</t>
+  </si>
+  <si>
+    <t>Fried Chicken 1st Marination Leg</t>
+  </si>
+  <si>
+    <t>Fried Chicken 1st Marination Popcorn</t>
+  </si>
+  <si>
+    <t>Fried Chicken 1st Marination Strips</t>
+  </si>
+  <si>
+    <t>Fried Chicken 1st Marination Wings</t>
+  </si>
+  <si>
+    <t>Fried Chicken 2nd Marination Leg</t>
+  </si>
+  <si>
+    <t>Fried Chicken 2nd Marination Popcorn</t>
+  </si>
+  <si>
+    <t>Fried Chicken 2nd Marination Strips</t>
+  </si>
+  <si>
+    <t>Fried Chicken 2nd Marination Wings</t>
+  </si>
+  <si>
     <t>Malai Kebab Masala</t>
   </si>
   <si>
@@ -91,6 +124,9 @@
     <t>Pav Bhaji Masala</t>
   </si>
   <si>
+    <t>Fried Chicken Batter Pre Mix 70 Gm Maida (1 Pkt)</t>
+  </si>
+  <si>
     <t>Tandoori Mayo</t>
   </si>
   <si>
@@ -127,6 +163,9 @@
     <t>Chicken Basic Momo 25 Gm</t>
   </si>
   <si>
+    <t>Fried Chicken Patty</t>
+  </si>
+  <si>
     <t>Dabeli Alu Pur Sabji</t>
   </si>
   <si>
@@ -148,9 +187,15 @@
     <t>Fried Chicken Sprinkle Masala 3</t>
   </si>
   <si>
+    <t>Peanut Chutney</t>
+  </si>
+  <si>
     <t>Burger Cheese Sauce</t>
   </si>
   <si>
+    <t>Fried Chicken Strips</t>
+  </si>
+  <si>
     <t>Gondhoraj Chicken Momo 30 Gm</t>
   </si>
   <si>
@@ -184,6 +229,9 @@
     <t>Chop Masala Gravy</t>
   </si>
   <si>
+    <t>Fried Chicken Batter Masala</t>
+  </si>
+  <si>
     <t>Garlic Chutney</t>
   </si>
   <si>
@@ -206,6 +254,9 @@
   </si>
   <si>
     <t>pieces</t>
+  </si>
+  <si>
+    <t>Pieces</t>
   </si>
 </sst>
 </file>
@@ -563,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>0.1065974389140271</v>
@@ -596,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>0.1911463865546218</v>
@@ -607,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>0.294258076923077</v>
@@ -618,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>0.3142580769230769</v>
@@ -629,7 +680,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>0.0663273076923077</v>
@@ -640,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>0.06155807692307693</v>
@@ -651,7 +702,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>0.05829337104072399</v>
@@ -662,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>0.1475144524886878</v>
@@ -673,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>0.2055110859728506</v>
@@ -684,7 +735,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>0.189802556561086</v>
@@ -695,7 +746,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>0.1338235294117647</v>
@@ -706,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>0.1911382389140271</v>
@@ -717,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>0.2752</v>
@@ -728,10 +779,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C15">
-        <v>0.8516608695652174</v>
+        <v>4.046756666666666</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -739,10 +790,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C16">
-        <v>0.316003953194181</v>
+        <v>35.56756666666666</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -750,10 +801,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>9.304472096530921</v>
+        <v>0.8516608695652174</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -761,10 +812,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C18">
-        <v>3.164245798319328</v>
+        <v>0.316003953194181</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -772,10 +823,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C19">
-        <v>4.607438601965986</v>
+        <v>9.304472096530921</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -783,10 +834,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C20">
-        <v>1.0868</v>
+        <v>3.164245798319328</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -794,10 +845,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C21">
-        <v>0.6739054901960786</v>
+        <v>4.607438601965986</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -805,10 +856,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C22">
-        <v>3.445602076124568</v>
+        <v>19.33397619047619</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -816,10 +867,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C23">
-        <v>0.475</v>
+        <v>0.2527571794871795</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -827,10 +878,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C24">
-        <v>0.1333994117647059</v>
+        <v>0.2827571794871795</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -838,10 +889,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C25">
-        <v>2.21497205882353</v>
+        <v>0.2827571794871795</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -849,10 +900,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C26">
-        <v>0.1286319230769231</v>
+        <v>0.1527571794871795</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -860,10 +911,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C27">
-        <v>0.7776000000000001</v>
+        <v>0.2769523076923077</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -871,10 +922,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C28">
-        <v>22.83706900452488</v>
+        <v>0.3258923076923076</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -882,10 +933,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C29">
-        <v>59.41206900452489</v>
+        <v>0.3258923076923076</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -893,10 +944,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C30">
-        <v>16.08229411764706</v>
+        <v>0.1919189743589743</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -904,10 +955,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C31">
-        <v>36.38730882352942</v>
+        <v>1.0868</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -915,10 +966,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C32">
-        <v>2.50396611596338</v>
+        <v>0.6739054901960786</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -926,10 +977,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C33">
-        <v>0.172248951048951</v>
+        <v>3.445602076124568</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -937,10 +988,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C34">
-        <v>0.1490016722408027</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -948,10 +999,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C35">
-        <v>2.343009411764706</v>
+        <v>6.391</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -959,10 +1010,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C36">
-        <v>0.124597816399287</v>
+        <v>0.1333994117647059</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -970,10 +1021,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C37">
-        <v>2.303719300982993</v>
+        <v>2.21497205882353</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -981,10 +1032,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C38">
-        <v>0.2548275862068966</v>
+        <v>0.1286319230769231</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -992,10 +1043,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C39">
-        <v>0.1778361538461539</v>
+        <v>0.7776000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1003,10 +1054,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C40">
-        <v>2.172088235294118</v>
+        <v>22.83706900452488</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1014,10 +1065,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C41">
-        <v>1.105421568627451</v>
+        <v>59.41206900452489</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1025,10 +1076,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C42">
-        <v>0.9413529411764706</v>
+        <v>16.08229411764706</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1036,10 +1087,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C43">
-        <v>0.1949216666666667</v>
+        <v>36.38730882352942</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1047,10 +1098,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C44">
-        <v>3.809191176470589</v>
+        <v>2.50396611596338</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1058,10 +1109,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C45">
-        <v>0.1016207642031172</v>
+        <v>0.172248951048951</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1069,10 +1120,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C46">
-        <v>0.1476476846057572</v>
+        <v>0.1490016722408027</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1080,10 +1131,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C47">
-        <v>1.564230769230769</v>
+        <v>2.343009411764706</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1091,10 +1142,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C48">
-        <v>0.0950959185520362</v>
+        <v>16.18702666666666</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1102,10 +1153,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C49">
-        <v>0.1652723076923077</v>
+        <v>0.124597816399287</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1113,10 +1164,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C50">
-        <v>0.1852723076923077</v>
+        <v>2.303719300982993</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1124,10 +1175,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C51">
-        <v>0.1152723076923077</v>
+        <v>0.2548275862068966</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1135,10 +1186,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C52">
-        <v>13.342</v>
+        <v>0.1778361538461539</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1146,10 +1197,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C53">
-        <v>10.942</v>
+        <v>2.172088235294118</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1157,10 +1208,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C54">
-        <v>0.1465235671191554</v>
+        <v>1.105421568627451</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1168,10 +1219,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C55">
-        <v>0.112207264957265</v>
+        <v>0.9413529411764706</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1179,10 +1230,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C56">
-        <v>0.1170247916170517</v>
+        <v>0.102220979020979</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1190,10 +1241,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C57">
-        <v>0.09775683760683759</v>
+        <v>0.1949216666666667</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1201,10 +1252,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C58">
-        <v>0.1884145034532032</v>
+        <v>10.11689166666667</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1212,10 +1263,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C59">
-        <v>5.688627450980392</v>
+        <v>3.809191176470589</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1223,9 +1274,185 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60">
+        <v>0.1016207642031172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61">
+        <v>0.1476476846057572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="C60">
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62">
+        <v>1.564230769230769</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63">
+        <v>0.0950959185520362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64">
+        <v>0.1652723076923077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65">
+        <v>0.1852723076923077</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66">
+        <v>0.1152723076923077</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67">
+        <v>13.342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68">
+        <v>10.942</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69">
+        <v>0.1465235671191554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70">
+        <v>0.5429714285714285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71">
+        <v>0.112207264957265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72">
+        <v>0.1170247916170517</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73">
+        <v>0.09775683760683759</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>0.1884145034532032</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>5.688627450980392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76">
         <v>7.021960784313726</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Unit_Cost/Our_Production_Products_Unit_Cost.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Unit_Cost/Our_Production_Products_Unit_Cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
   <si>
     <t>Product</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Fried Chicken Batter Masala</t>
+  </si>
+  <si>
+    <t>Basa Fish Finger Fry 15 GM Filet</t>
   </si>
   <si>
     <t>Garlic Chutney</t>
@@ -614,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>0.1065974389140271</v>
@@ -647,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>0.1911463865546218</v>
@@ -658,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>0.294258076923077</v>
@@ -669,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>0.3142580769230769</v>
@@ -680,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>0.0663273076923077</v>
@@ -691,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>0.06155807692307693</v>
@@ -702,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>0.05829337104072399</v>
@@ -713,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>0.1475144524886878</v>
@@ -724,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>0.2055110859728506</v>
@@ -735,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>0.189802556561086</v>
@@ -746,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>0.1338235294117647</v>
@@ -757,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>0.1911382389140271</v>
@@ -768,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>0.2752</v>
@@ -779,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <v>4.046756666666666</v>
@@ -790,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <v>35.56756666666666</v>
@@ -801,7 +804,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17">
         <v>0.8516608695652174</v>
@@ -812,7 +815,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18">
         <v>0.316003953194181</v>
@@ -823,7 +826,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19">
         <v>9.304472096530921</v>
@@ -834,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20">
         <v>3.164245798319328</v>
@@ -845,7 +848,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>4.607438601965986</v>
@@ -856,7 +859,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22">
         <v>19.33397619047619</v>
@@ -867,7 +870,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23">
         <v>0.2527571794871795</v>
@@ -878,7 +881,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>0.2827571794871795</v>
@@ -889,7 +892,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>0.2827571794871795</v>
@@ -900,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26">
         <v>0.1527571794871795</v>
@@ -911,7 +914,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27">
         <v>0.2769523076923077</v>
@@ -922,7 +925,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28">
         <v>0.3258923076923076</v>
@@ -933,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29">
         <v>0.3258923076923076</v>
@@ -944,7 +947,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>0.1919189743589743</v>
@@ -955,7 +958,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31">
         <v>1.0868</v>
@@ -966,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32">
         <v>0.6739054901960786</v>
@@ -977,7 +980,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <v>3.445602076124568</v>
@@ -988,7 +991,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34">
         <v>0.475</v>
@@ -999,7 +1002,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35">
         <v>6.391</v>
@@ -1010,7 +1013,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <v>0.1333994117647059</v>
@@ -1021,7 +1024,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37">
         <v>2.21497205882353</v>
@@ -1032,7 +1035,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38">
         <v>0.1286319230769231</v>
@@ -1043,7 +1046,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39">
         <v>0.7776000000000001</v>
@@ -1054,7 +1057,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>22.83706900452488</v>
@@ -1065,7 +1068,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>59.41206900452489</v>
@@ -1076,7 +1079,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42">
         <v>16.08229411764706</v>
@@ -1087,7 +1090,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>36.38730882352942</v>
@@ -1098,7 +1101,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44">
         <v>2.50396611596338</v>
@@ -1109,7 +1112,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45">
         <v>0.172248951048951</v>
@@ -1120,7 +1123,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>0.1490016722408027</v>
@@ -1131,10 +1134,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C47">
-        <v>2.343009411764706</v>
+        <v>2.076209411764706</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1142,7 +1145,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48">
         <v>16.18702666666666</v>
@@ -1153,7 +1156,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.124597816399287</v>
@@ -1164,10 +1167,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C50">
-        <v>2.303719300982993</v>
+        <v>2.200271025120924</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1175,7 +1178,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C51">
         <v>0.2548275862068966</v>
@@ -1186,7 +1189,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C52">
         <v>0.1778361538461539</v>
@@ -1197,7 +1200,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C53">
         <v>2.172088235294118</v>
@@ -1208,7 +1211,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C54">
         <v>1.105421568627451</v>
@@ -1219,7 +1222,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55">
         <v>0.9413529411764706</v>
@@ -1230,7 +1233,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56">
         <v>0.102220979020979</v>
@@ -1241,7 +1244,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57">
         <v>0.1949216666666667</v>
@@ -1252,7 +1255,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58">
         <v>10.11689166666667</v>
@@ -1263,7 +1266,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59">
         <v>3.809191176470589</v>
@@ -1274,7 +1277,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60">
         <v>0.1016207642031172</v>
@@ -1285,7 +1288,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61">
         <v>0.1476476846057572</v>
@@ -1296,7 +1299,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62">
         <v>1.564230769230769</v>
@@ -1307,7 +1310,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63">
         <v>0.0950959185520362</v>
@@ -1318,7 +1321,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64">
         <v>0.1652723076923077</v>
@@ -1329,7 +1332,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C65">
         <v>0.1852723076923077</v>
@@ -1340,7 +1343,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C66">
         <v>0.1152723076923077</v>
@@ -1351,7 +1354,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C67">
         <v>13.342</v>
@@ -1362,7 +1365,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C68">
         <v>10.942</v>
@@ -1373,7 +1376,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69">
         <v>0.1465235671191554</v>
@@ -1384,7 +1387,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C70">
         <v>0.5429714285714285</v>
@@ -1395,10 +1398,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C71">
-        <v>0.112207264957265</v>
+        <v>6.524876858435682</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1406,10 +1409,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C72">
-        <v>0.1170247916170517</v>
+        <v>0.112207264957265</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1417,10 +1420,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73">
-        <v>0.09775683760683759</v>
+        <v>0.1170247916170517</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1428,10 +1431,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74">
-        <v>0.1884145034532032</v>
+        <v>0.09775683760683759</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1442,7 +1445,7 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>5.688627450980392</v>
+        <v>0.1884145034532032</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1450,9 +1453,20 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76">
+        <v>5.688627450980392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77">
         <v>7.021960784313726</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Unit_Cost/Our_Production_Products_Unit_Cost.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Unit_Cost/Our_Production_Products_Unit_Cost.xlsx
@@ -1137,7 +1137,7 @@
         <v>80</v>
       </c>
       <c r="C47">
-        <v>2.076209411764706</v>
+        <v>1.989009411764706</v>
       </c>
     </row>
     <row r="48" spans="1:3">
